--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-18</t>
+    <t>2022-07-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization.xlsx
@@ -448,7 +448,7 @@
     <t>dueDateOfNextDose</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/StructureDefinition/JP_Immunization_DueDateOfNextDose}
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_DueDateOfNextDose}
 </t>
   </si>
   <si>
@@ -465,7 +465,7 @@
     <t>manufacturedDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/StructureDefinition/JP_Immunization_ManufacturedDate}
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_ManufacturedDate}
 </t>
   </si>
   <si>
@@ -478,7 +478,7 @@
     <t>certificatedDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/StructureDefinition/JP_Immunization_CertificatedDate}
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_CertificatedDate}
 </t>
   </si>
   <si>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization.xlsx
@@ -606,7 +606,7 @@
     <t>接種されたあるいは接種予定のワクチン。</t>
   </si>
   <si>
-    <t>全てのターミノロジーがこのパターンに当てはまるわけではない。モデルによってはCoceableConceptではなく，独自構造でCodingを直接指定して文書やコーディング，その解釈や事前条件や事後条件との関連について示される。</t>
+    <t>全てのターミノロジーがこのパターンに当てはまるわけではない。モデルによってはCodeableConceptではなく，独自構造でCodingを直接指定して文書やコーディング，その解釈や事前条件や事後条件との関連について示される。</t>
   </si>
   <si>
     <t>The code for vaccine product administered.</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="441">
   <si>
     <t>Property</t>
   </si>
@@ -609,10 +609,7 @@
     <t>全てのターミノロジーがこのパターンに当てはまるわけではない。モデルによってはCodeableConceptではなく，独自構造でCodingを直接指定して文書やコーディング，その解釈や事前条件や事後条件との関連について示される。</t>
   </si>
   <si>
-    <t>The code for vaccine product administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/vaccine-code</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1717,7 +1714,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="66.7265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.24609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.26171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
@@ -3619,13 +3616,11 @@
         <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="X17" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="X17" s="2"/>
+      <c r="Y17" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>77</v>
@@ -3658,24 +3653,24 @@
         <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3698,13 +3693,13 @@
         <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3755,7 +3750,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>87</v>
@@ -3770,16 +3765,16 @@
         <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3787,7 +3782,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3810,13 +3805,13 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3867,7 +3862,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -3882,16 +3877,16 @@
         <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3899,7 +3894,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3922,16 +3917,16 @@
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3981,7 +3976,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>87</v>
@@ -3996,24 +3991,24 @@
         <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>223</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4036,13 +4031,13 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4093,7 +4088,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4114,10 +4109,10 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4125,7 +4120,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4148,16 +4143,16 @@
         <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4207,7 +4202,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4225,13 +4220,13 @@
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4239,7 +4234,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4265,13 +4260,13 @@
         <v>178</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4300,11 +4295,11 @@
         <v>182</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>243</v>
-      </c>
       <c r="Z23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4321,7 +4316,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4339,13 +4334,13 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4353,7 +4348,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4376,13 +4371,13 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4433,7 +4428,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4448,16 +4443,16 @@
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4465,7 +4460,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4488,13 +4483,13 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4545,7 +4540,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4563,21 +4558,21 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>259</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4603,10 +4598,10 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4657,7 +4652,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4675,21 +4670,21 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4712,13 +4707,13 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4769,7 +4764,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4787,10 +4782,10 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4801,7 +4796,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4827,10 +4822,10 @@
         <v>178</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4860,11 +4855,11 @@
         <v>182</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4881,7 +4876,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4899,21 +4894,21 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>278</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4939,10 +4934,10 @@
         <v>178</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4972,11 +4967,11 @@
         <v>182</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
       </c>
@@ -4993,7 +4988,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5011,21 +5006,21 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>286</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5048,13 +5043,13 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5105,7 +5100,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5123,10 +5118,10 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -5137,7 +5132,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5160,13 +5155,13 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5217,7 +5212,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5232,13 +5227,13 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5249,7 +5244,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5275,10 +5270,10 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5329,28 +5324,28 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5361,7 +5356,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5387,10 +5382,10 @@
         <v>132</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>156</v>
@@ -5443,7 +5438,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5464,7 +5459,7 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5475,11 +5470,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5501,10 +5496,10 @@
         <v>132</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>156</v>
@@ -5559,7 +5554,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5591,7 +5586,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5617,10 +5612,10 @@
         <v>178</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5647,14 +5642,14 @@
         <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="X35" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="X35" t="s" s="2">
+      <c r="Y35" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5671,7 +5666,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5686,13 +5681,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5703,7 +5698,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5726,16 +5721,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5785,7 +5780,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>87</v>
@@ -5800,16 +5795,16 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AK36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5817,7 +5812,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5840,13 +5835,13 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5897,7 +5892,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -5912,13 +5907,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5929,7 +5924,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5955,10 +5950,10 @@
         <v>178</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5988,11 +5983,11 @@
         <v>182</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>341</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6009,7 +6004,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6024,13 +6019,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6041,7 +6036,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6064,13 +6059,13 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6121,7 +6116,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6136,7 +6131,7 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
@@ -6153,7 +6148,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6176,23 +6171,23 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q40" t="s" s="2">
         <v>77</v>
@@ -6237,7 +6232,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6255,7 +6250,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>130</v>
@@ -6269,7 +6264,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6295,10 +6290,10 @@
         <v>178</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6328,11 +6323,11 @@
         <v>182</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="Y41" t="s" s="2">
-        <v>359</v>
-      </c>
       <c r="Z41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6349,7 +6344,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6381,7 +6376,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6404,13 +6399,13 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6461,7 +6456,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6473,7 +6468,7 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
@@ -6493,7 +6488,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6519,10 +6514,10 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6573,28 +6568,28 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6605,7 +6600,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6631,10 +6626,10 @@
         <v>132</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>156</v>
@@ -6687,7 +6682,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6708,7 +6703,7 @@
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6719,11 +6714,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6745,10 +6740,10 @@
         <v>132</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>156</v>
@@ -6803,7 +6798,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6835,7 +6830,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6861,10 +6856,10 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6915,7 +6910,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -6933,7 +6928,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>130</v>
@@ -6947,7 +6942,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6973,10 +6968,10 @@
         <v>101</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7027,7 +7022,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7059,7 +7054,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7082,13 +7077,13 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7139,7 +7134,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7157,7 +7152,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>130</v>
@@ -7171,7 +7166,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7194,13 +7189,13 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7251,7 +7246,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7269,7 +7264,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>130</v>
@@ -7283,7 +7278,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7309,10 +7304,10 @@
         <v>178</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7342,11 +7337,11 @@
         <v>182</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>386</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7363,7 +7358,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7381,7 +7376,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>130</v>
@@ -7395,7 +7390,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7421,10 +7416,10 @@
         <v>178</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7454,11 +7449,11 @@
         <v>182</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>392</v>
-      </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7475,7 +7470,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7507,7 +7502,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7530,16 +7525,16 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7589,7 +7584,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7607,10 +7602,10 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7621,7 +7616,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7647,10 +7642,10 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7701,28 +7696,28 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7733,7 +7728,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7759,10 +7754,10 @@
         <v>132</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>156</v>
@@ -7815,7 +7810,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -7836,7 +7831,7 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7847,11 +7842,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7873,10 +7868,10 @@
         <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>156</v>
@@ -7931,7 +7926,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -7963,7 +7958,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7986,13 +7981,13 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8043,7 +8038,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8061,10 +8056,10 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8075,7 +8070,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8098,13 +8093,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8155,7 +8150,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8173,10 +8168,10 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8187,7 +8182,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8210,13 +8205,13 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8267,7 +8262,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8285,10 +8280,10 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8299,7 +8294,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8322,13 +8317,13 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8379,7 +8374,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8411,7 +8406,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8437,10 +8432,10 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8491,28 +8486,28 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8523,7 +8518,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8549,10 +8544,10 @@
         <v>132</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>156</v>
@@ -8605,7 +8600,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8626,7 +8621,7 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8637,11 +8632,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8663,10 +8658,10 @@
         <v>132</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>156</v>
@@ -8721,7 +8716,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -8753,7 +8748,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8779,10 +8774,10 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8833,7 +8828,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -8865,7 +8860,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8888,13 +8883,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8945,7 +8940,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -8977,7 +8972,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9003,10 +8998,10 @@
         <v>178</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9036,11 +9031,11 @@
         <v>182</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="Y65" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9057,7 +9052,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9089,7 +9084,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9112,16 +9107,16 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9171,7 +9166,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>87</v>
@@ -9203,7 +9198,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9226,16 +9221,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L67" t="s" s="2">
-        <v>441</v>
-      </c>
       <c r="M67" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9285,7 +9280,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="442">
   <si>
     <t>Property</t>
   </si>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>このProfileはImmunizationリソースに対して日本での予防接種データを送受信するための成約を加えてものである。</t>
+    <t>このProfileはImmunizationリソースに対して日本での予防接種データを送受信するための制約を加えたものである。</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -283,544 +283,548 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>このResourceに対する論理ID</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Immunization.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Immunization.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Immunization.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Immunization.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Immunization.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Immunization.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>dueDateOfNextDose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_DueDateOfNextDose}
+</t>
+  </si>
+  <si>
+    <t>次回接種予定日</t>
+  </si>
+  <si>
+    <t>次回接種を予定している日、期限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>manufacturedDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_ManufacturedDate}
+</t>
+  </si>
+  <si>
+    <t>製造年月日</t>
+  </si>
+  <si>
+    <t>ワクチンが製造された年月日</t>
+  </si>
+  <si>
+    <t>certificatedDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_CertificatedDate}
+</t>
+  </si>
+  <si>
+    <t>検定年月日</t>
+  </si>
+  <si>
+    <t>ワクチンが検定された年月日</t>
+  </si>
+  <si>
+    <t>Immunization.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Immunization.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business identifier</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this immunization record.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/id</t>
+  </si>
+  <si>
+    <t>Immunization.status</t>
+  </si>
+  <si>
+    <t>completed | entered-in-error | not-done</t>
+  </si>
+  <si>
+    <t>予防接種記録の現在の状態を示すコード</t>
+  </si>
+  <si>
+    <t>Will generally be set to show that the immunization has been completed or not done.  This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>予防接種の現在の状態を表すコード</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Immunization.statusReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>実施しなかった理由</t>
+  </si>
+  <si>
+    <t>Indicates the reason the immunization event was not performed.</t>
+  </si>
+  <si>
+    <t>This is generally only used for the status of "not-done". The reason for performing the immunization event is captured in reasonCode, not here.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>The reason why a vaccine was not administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-status-reason</t>
+  </si>
+  <si>
+    <t>Event.statusReason</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode</t>
+  </si>
+  <si>
+    <t>接種されたワクチン製剤</t>
+  </si>
+  <si>
+    <t>接種されたあるいは接種予定のワクチン。</t>
+  </si>
+  <si>
+    <t>全てのターミノロジーがこのパターンに当てはまるわけではない。モデルによってはCodeableConceptではなく，独自構造でCodingを直接指定して文書やコーディング，その解釈や事前条件や事後条件との関連について示される。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_Immunization_VS</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>RXA-5</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/realmCode/code</t>
+  </si>
+  <si>
+    <t>Immunization.patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient)
+</t>
+  </si>
+  <si>
+    <t>予防接種を受けた人</t>
+  </si>
+  <si>
+    <t>予防接種を受けた，あるいは受けなかった患者。</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>.partipication[ttypeCode=].role</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Immunization.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>予防接種を受けた診察</t>
+  </si>
+  <si>
+    <t>患者が医療従事者から予防接種を受けた外来，入院あるいは他の対面の状態を表す。</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>component-&gt;EncounterEvent</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>Immunization.occurrence[x]</t>
+  </si>
+  <si>
+    <t>dateTime
+string</t>
+  </si>
+  <si>
+    <t>ワクチンを接種した日時</t>
+  </si>
+  <si>
+    <t>ワクチンを接種した日あるいは接種予定だった日。</t>
+  </si>
+  <si>
+    <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>RXA-3</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/effectiveTime/value</t>
+  </si>
+  <si>
+    <t>Immunization.recorded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>予防接種を受けた対象者の記録として最初に記載された日。</t>
+  </si>
+  <si>
+    <t>The date the occurrence of the immunization was first captured in the record - potentially significantly after the occurrence of the event.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>Immunization.primarySource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Indicates context the data was recorded in</t>
+  </si>
+  <si>
+    <t>An indication that the content of the record is based on information from the person who administered the vaccine. This reflects the context under which the data was originally recorded.</t>
+  </si>
+  <si>
+    <t>Reflects the “reliability” of the content.</t>
+  </si>
+  <si>
+    <t>RXA-9</t>
+  </si>
+  <si>
+    <t>immunization.uncertaintycode (if primary source=false, uncertainty=U)</t>
+  </si>
+  <si>
+    <t>FiveWs.source</t>
+  </si>
+  <si>
+    <t>Immunization.reportOrigin</t>
+  </si>
+  <si>
+    <t>二次的に報告された記録の発生源を示す</t>
+  </si>
+  <si>
+    <t>予防接種を実施した時に，ワクチンを接種した人以外からの報告からの情報である場合のデータの発生源。</t>
+  </si>
+  <si>
+    <t>Should not be populated if primarySource = True, not required even if primarySource = False.</t>
+  </si>
+  <si>
+    <t>The source of the data for a record which is not from a primary source.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-origin</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=INF].role[classCode=PAT] (this syntax for self-reported) .participation[typeCode=INF].role[classCode=LIC] (this syntax for health care professional) .participation[typeCode=INF].role[classCode=PRS] (this syntax for family member)</t>
+  </si>
+  <si>
+    <t>Immunization.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location)
+</t>
+  </si>
+  <si>
+    <t>ワクチンを接種した場所</t>
+  </si>
+  <si>
+    <t>接種医療機関。ワクチン接種がどこで実施されたかを表す。サービスが提供された場所。摂取された身体部位ではない。</t>
+  </si>
+  <si>
+    <t>Event.location</t>
+  </si>
+  <si>
+    <t>RXA-27  (or RXA-11, deprecated as of v2.7)</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=LOC].COCT_MT240000UV</t>
+  </si>
+  <si>
+    <t>FiveWs.where[x]</t>
+  </si>
+  <si>
+    <t>Immunization.manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>ワクチンメーカー</t>
+  </si>
+  <si>
+    <t>ワクチメーカーの名前。</t>
+  </si>
+  <si>
+    <t>RXA-17</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=ORG]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacuturerOrganization/name</t>
+  </si>
+  <si>
+    <t>Immunization.lotNumber</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>このResourceに対する論理ID</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Immunization.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Immunization.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Immunization.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Immunization.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Immunization.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Immunization.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>dueDateOfNextDose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_DueDateOfNextDose}
-</t>
-  </si>
-  <si>
-    <t>次回接種予定日</t>
-  </si>
-  <si>
-    <t>次回接種を予定している日、期限</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>manufacturedDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_ManufacturedDate}
-</t>
-  </si>
-  <si>
-    <t>製造年月日</t>
-  </si>
-  <si>
-    <t>ワクチンが製造された年月日</t>
-  </si>
-  <si>
-    <t>certificatedDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_CertificatedDate}
-</t>
-  </si>
-  <si>
-    <t>検定年月日</t>
-  </si>
-  <si>
-    <t>ワクチンが検定された年月日</t>
-  </si>
-  <si>
-    <t>Immunization.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Immunization.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business identifier</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this immunization record.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/id</t>
-  </si>
-  <si>
-    <t>Immunization.status</t>
-  </si>
-  <si>
-    <t>completed | entered-in-error | not-done</t>
-  </si>
-  <si>
-    <t>予防接種記録の現在の状態を示すコード</t>
-  </si>
-  <si>
-    <t>Will generally be set to show that the immunization has been completed or not done.  This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>予防接種の現在の状態を表すコード</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Immunization.statusReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>実施しなかった理由</t>
-  </si>
-  <si>
-    <t>Indicates the reason the immunization event was not performed.</t>
-  </si>
-  <si>
-    <t>This is generally only used for the status of "not-done". The reason for performing the immunization event is captured in reasonCode, not here.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The reason why a vaccine was not administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-status-reason</t>
-  </si>
-  <si>
-    <t>Event.statusReason</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode</t>
-  </si>
-  <si>
-    <t>接種されたワクチン製剤</t>
-  </si>
-  <si>
-    <t>接種されたあるいは接種予定のワクチン。</t>
-  </si>
-  <si>
-    <t>全てのターミノロジーがこのパターンに当てはまるわけではない。モデルによってはCodeableConceptではなく，独自構造でCodingを直接指定して文書やコーディング，その解釈や事前条件や事後条件との関連について示される。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>RXA-5</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/realmCode/code</t>
-  </si>
-  <si>
-    <t>Immunization.patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient)
-</t>
-  </si>
-  <si>
-    <t>予防接種を受けた人</t>
-  </si>
-  <si>
-    <t>予防接種を受けた，あるいは受けなかった患者。</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>.partipication[ttypeCode=].role</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Immunization.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>予防接種を受けた診察</t>
-  </si>
-  <si>
-    <t>患者が医療従事者から予防接種を受けた外来，入院あるいは他の対面の状態を表す。</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>component-&gt;EncounterEvent</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>Immunization.occurrence[x]</t>
-  </si>
-  <si>
-    <t>dateTime
-string</t>
-  </si>
-  <si>
-    <t>ワクチンを接種した日時</t>
-  </si>
-  <si>
-    <t>ワクチンを接種した日あるいは接種予定だった日。</t>
-  </si>
-  <si>
-    <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>RXA-3</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/effectiveTime/value</t>
-  </si>
-  <si>
-    <t>Immunization.recorded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>予防接種を受けた対象者の記録として最初に記載された日。</t>
-  </si>
-  <si>
-    <t>The date the occurrence of the immunization was first captured in the record - potentially significantly after the occurrence of the event.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>Immunization.primarySource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Indicates context the data was recorded in</t>
-  </si>
-  <si>
-    <t>An indication that the content of the record is based on information from the person who administered the vaccine. This reflects the context under which the data was originally recorded.</t>
-  </si>
-  <si>
-    <t>Reflects the “reliability” of the content.</t>
-  </si>
-  <si>
-    <t>RXA-9</t>
-  </si>
-  <si>
-    <t>immunization.uncertaintycode (if primary source=false, uncertainty=U)</t>
-  </si>
-  <si>
-    <t>FiveWs.source</t>
-  </si>
-  <si>
-    <t>Immunization.reportOrigin</t>
-  </si>
-  <si>
-    <t>二次的に報告された記録の発生源を示す</t>
-  </si>
-  <si>
-    <t>予防接種を実施した時に，ワクチンを接種した人以外からの報告からの情報である場合のデータの発生源。</t>
-  </si>
-  <si>
-    <t>Should not be populated if primarySource = True, not required even if primarySource = False.</t>
-  </si>
-  <si>
-    <t>The source of the data for a record which is not from a primary source.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-origin</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=INF].role[classCode=PAT] (this syntax for self-reported) .participation[typeCode=INF].role[classCode=LIC] (this syntax for health care professional) .participation[typeCode=INF].role[classCode=PRS] (this syntax for family member)</t>
-  </si>
-  <si>
-    <t>Immunization.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location)
-</t>
-  </si>
-  <si>
-    <t>ワクチンを接種した場所</t>
-  </si>
-  <si>
-    <t>接種医療機関。ワクチン接種がどこで実施されたかを表す。サービスが提供された場所。摂取された身体部位ではない。</t>
-  </si>
-  <si>
-    <t>Event.location</t>
-  </si>
-  <si>
-    <t>RXA-27  (or RXA-11, deprecated as of v2.7)</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=LOC].COCT_MT240000UV</t>
-  </si>
-  <si>
-    <t>FiveWs.where[x]</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>ワクチンメーカー</t>
-  </si>
-  <si>
-    <t>ワクチメーカーの名前。</t>
-  </si>
-  <si>
-    <t>RXA-17</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=ORG]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacuturerOrganization/name</t>
-  </si>
-  <si>
-    <t>Immunization.lotNumber</t>
   </si>
   <si>
     <t>ワクチンのロット番号</t>
@@ -1714,7 +1718,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="66.7265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.26171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.72265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
@@ -4595,13 +4599,13 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4670,21 +4674,21 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4707,13 +4711,13 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4764,7 +4768,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4782,10 +4786,10 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4796,7 +4800,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4822,10 +4826,10 @@
         <v>178</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4855,10 +4859,10 @@
         <v>182</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>77</v>
@@ -4876,7 +4880,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4894,21 +4898,21 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4934,10 +4938,10 @@
         <v>178</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4967,10 +4971,10 @@
         <v>182</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
@@ -4988,7 +4992,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5006,21 +5010,21 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5043,13 +5047,13 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5100,7 +5104,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5118,10 +5122,10 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -5132,7 +5136,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5155,13 +5159,13 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5212,7 +5216,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5227,13 +5231,13 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5244,7 +5248,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5267,13 +5271,13 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5324,7 +5328,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5345,7 +5349,7 @@
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5356,7 +5360,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5382,10 +5386,10 @@
         <v>132</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>156</v>
@@ -5438,7 +5442,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5459,7 +5463,7 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5470,11 +5474,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5496,10 +5500,10 @@
         <v>132</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>156</v>
@@ -5554,7 +5558,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5586,7 +5590,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5612,10 +5616,10 @@
         <v>178</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5642,13 +5646,13 @@
         <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>77</v>
@@ -5666,7 +5670,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5681,13 +5685,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5698,7 +5702,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5721,16 +5725,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5780,7 +5784,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>87</v>
@@ -5795,16 +5799,16 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5812,7 +5816,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5835,13 +5839,13 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5892,7 +5896,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -5907,13 +5911,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5924,7 +5928,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5950,10 +5954,10 @@
         <v>178</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5983,10 +5987,10 @@
         <v>182</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
@@ -6004,7 +6008,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6019,13 +6023,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6036,7 +6040,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6059,13 +6063,13 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6116,7 +6120,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6131,7 +6135,7 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
@@ -6148,7 +6152,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6174,20 +6178,20 @@
         <v>230</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q40" t="s" s="2">
         <v>77</v>
@@ -6232,7 +6236,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6250,7 +6254,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>130</v>
@@ -6264,7 +6268,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6290,10 +6294,10 @@
         <v>178</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6323,10 +6327,10 @@
         <v>182</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>77</v>
@@ -6344,7 +6348,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6376,7 +6380,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6399,13 +6403,13 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6456,7 +6460,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6468,7 +6472,7 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
@@ -6488,7 +6492,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6511,13 +6515,13 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6568,7 +6572,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6589,7 +6593,7 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6600,7 +6604,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6626,10 +6630,10 @@
         <v>132</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>156</v>
@@ -6682,7 +6686,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6703,7 +6707,7 @@
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6714,11 +6718,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6740,10 +6744,10 @@
         <v>132</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>156</v>
@@ -6798,7 +6802,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6830,7 +6834,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6853,13 +6857,13 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6910,7 +6914,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -6928,7 +6932,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>130</v>
@@ -6942,7 +6946,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6968,10 +6972,10 @@
         <v>101</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7022,7 +7026,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7054,7 +7058,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7080,10 +7084,10 @@
         <v>224</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7134,7 +7138,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7152,7 +7156,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>130</v>
@@ -7166,7 +7170,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7192,10 +7196,10 @@
         <v>224</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7246,7 +7250,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7264,7 +7268,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>130</v>
@@ -7278,7 +7282,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7304,10 +7308,10 @@
         <v>178</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7337,10 +7341,10 @@
         <v>182</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7358,7 +7362,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7376,7 +7380,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>130</v>
@@ -7390,7 +7394,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7416,10 +7420,10 @@
         <v>178</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7449,10 +7453,10 @@
         <v>182</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7470,7 +7474,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7502,7 +7506,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7525,16 +7529,16 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7584,7 +7588,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7602,10 +7606,10 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7616,7 +7620,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7639,13 +7643,13 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7696,7 +7700,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -7717,7 +7721,7 @@
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7728,7 +7732,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7754,10 +7758,10 @@
         <v>132</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>156</v>
@@ -7810,7 +7814,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -7831,7 +7835,7 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7842,11 +7846,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7868,10 +7872,10 @@
         <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>156</v>
@@ -7926,7 +7930,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -7958,7 +7962,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7984,10 +7988,10 @@
         <v>224</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8038,7 +8042,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8056,7 +8060,7 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>220</v>
@@ -8070,7 +8074,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8093,13 +8097,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8150,7 +8154,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8168,10 +8172,10 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8182,7 +8186,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8208,10 +8212,10 @@
         <v>230</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8262,7 +8266,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8280,10 +8284,10 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8294,7 +8298,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8317,13 +8321,13 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8374,7 +8378,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8406,7 +8410,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8429,13 +8433,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8486,7 +8490,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8507,7 +8511,7 @@
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8518,7 +8522,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8544,10 +8548,10 @@
         <v>132</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>156</v>
@@ -8600,7 +8604,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8621,7 +8625,7 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8632,11 +8636,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8658,10 +8662,10 @@
         <v>132</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>156</v>
@@ -8716,7 +8720,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -8748,7 +8752,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8771,13 +8775,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8828,7 +8832,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -8860,7 +8864,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8886,10 +8890,10 @@
         <v>253</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8940,7 +8944,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -8972,7 +8976,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8998,10 +9002,10 @@
         <v>178</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9031,10 +9035,10 @@
         <v>182</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
@@ -9052,7 +9056,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9084,7 +9088,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9107,16 +9111,16 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9166,7 +9170,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>87</v>
@@ -9198,7 +9202,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9221,16 +9225,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9280,7 +9284,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="445">
   <si>
     <t>Property</t>
   </si>
@@ -630,7 +630,7 @@
     <t>Immunization.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient)
 </t>
   </si>
   <si>
@@ -655,7 +655,7 @@
     <t>Immunization.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter)
 </t>
   </si>
   <si>
@@ -776,7 +776,7 @@
     <t>Immunization.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Location)
 </t>
   </si>
   <si>
@@ -799,540 +799,551 @@
   </si>
   <si>
     <t>Immunization.manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization)
+</t>
+  </si>
+  <si>
+    <t>ワクチンメーカー</t>
+  </si>
+  <si>
+    <t>ワクチメーカーの名前。</t>
+  </si>
+  <si>
+    <t>RXA-17</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=ORG]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacuturerOrganization/name</t>
+  </si>
+  <si>
+    <t>Immunization.lotNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>ワクチンのロット番号</t>
+  </si>
+  <si>
+    <t>ワクチン製剤のロット番号。</t>
+  </si>
+  <si>
+    <t>RXA-15</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=MMAT].id</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/lotNumberText</t>
+  </si>
+  <si>
+    <t>Immunization.expirationDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>ワクチンの使用期限</t>
+  </si>
+  <si>
+    <t>ワクチンの消費期限を表す日。</t>
+  </si>
+  <si>
+    <t>RXA-16</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=MMAT].expirationTime</t>
+  </si>
+  <si>
+    <t>Immunization.site</t>
+  </si>
+  <si>
+    <t>ワクチンが接種された身体部位</t>
+  </si>
+  <si>
+    <t>The site at which the vaccine was administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-site</t>
+  </si>
+  <si>
+    <t>RXR-2</t>
+  </si>
+  <si>
+    <t>observation.targetSiteCode</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/approachSiteCode/code</t>
+  </si>
+  <si>
+    <t>Immunization.route</t>
+  </si>
+  <si>
+    <t>ワクチンを接種した経路</t>
+  </si>
+  <si>
+    <t>ワクチンが体内へと接種された経路。</t>
+  </si>
+  <si>
+    <t>The route by which the vaccine was administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-route</t>
+  </si>
+  <si>
+    <t>RXR-1</t>
+  </si>
+  <si>
+    <t>.routeCode</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/routeCode/code</t>
+  </si>
+  <si>
+    <t>Immunization.doseQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationSimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>ワクチンの投与量</t>
+  </si>
+  <si>
+    <t>ワクチン製剤が接種された量</t>
+  </si>
+  <si>
+    <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+  </si>
+  <si>
+    <t>SN (see also Range) or CQ</t>
+  </si>
+  <si>
+    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+  </si>
+  <si>
+    <t>Immunization.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>ワクチン接種を実施した人</t>
+  </si>
+  <si>
+    <t>誰が予防接種を実施したかを表す。</t>
+  </si>
+  <si>
+    <t>Event.performer</t>
+  </si>
+  <si>
+    <t>ORC-12 / RXA-10</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
+  </si>
+  <si>
+    <t>Immunization.performer.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Immunization.performer.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Immunization.performer.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Immunization.performer.function</t>
+  </si>
+  <si>
+    <t>What type of performance was done</t>
+  </si>
+  <si>
+    <t>Describes the type of performance (e.g. ordering provider, administering provider, etc.).</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>The role a practitioner or organization plays in the immunization event.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-function</t>
+  </si>
+  <si>
+    <t>Event.performer.function</t>
+  </si>
+  <si>
+    <t>.participation.functionCode</t>
+  </si>
+  <si>
+    <t>Immunization.performer.actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization)
+</t>
+  </si>
+  <si>
+    <t>Individual or organization who was performing</t>
+  </si>
+  <si>
+    <t>The practitioner or organization who performed the action.</t>
+  </si>
+  <si>
+    <t>When the individual practitioner who performed the action is known, it is best to send.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>.player</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>Immunization.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>予防接種についての補足的記録</t>
+  </si>
+  <si>
+    <t>他の属性で伝達することができない予防接種に関する他の記録。</t>
+  </si>
+  <si>
+    <t>Event.note</t>
+  </si>
+  <si>
+    <t>OBX-5 : OBX-3 = 48767-8</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Immunization.reasonCode</t>
+  </si>
+  <si>
+    <t>予防接種を接種した理由</t>
+  </si>
+  <si>
+    <t>予防接種が行われた理由</t>
+  </si>
+  <si>
+    <t>The reason why a vaccine was administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-reason</t>
+  </si>
+  <si>
+    <t>Event.reasonCode</t>
+  </si>
+  <si>
+    <t>[actionNegationInd=false].reasonCode</t>
+  </si>
+  <si>
+    <t>Immunization.reasonReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
+</t>
+  </si>
+  <si>
+    <t>予防接種を実施した理由</t>
+  </si>
+  <si>
+    <t>予防接種が実施された理由を表すCondition，ObservationあるいはDiagnosticReportリソースを参照する。</t>
+  </si>
+  <si>
+    <t>Event.reasonReference</t>
+  </si>
+  <si>
+    <t>Immunization.isSubpotent</t>
+  </si>
+  <si>
+    <t>効力量</t>
+  </si>
+  <si>
+    <t>量が通常の効力より弱いと考えられているかどうかを示す。デフォルトでは示されている量と同等の効力をもつと考えられている。</t>
+  </si>
+  <si>
+    <t>Typically, the recognition of the dose being sub-potent is retrospective, after the administration (ex. notification of a manufacturer recall after administration). However, in the case of a partial administration (the patient moves unexpectedly and only some of the dose is actually administered), subpotency may be recognized immediately, but it is still important to record the event.</t>
+  </si>
+  <si>
+    <t>By default, a dose should be considered to be potent.</t>
+  </si>
+  <si>
+    <t>RXA-20 = PA (partial administration)</t>
+  </si>
+  <si>
+    <t>Immunization.subpotentReason</t>
+  </si>
+  <si>
+    <t>効力が減弱する理由</t>
+  </si>
+  <si>
+    <t>効力が減弱すると考えられている理由。</t>
+  </si>
+  <si>
+    <t>The reason why a dose is considered to be subpotent.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-subpotent-reason</t>
+  </si>
+  <si>
+    <t>Immunization.education</t>
+  </si>
+  <si>
+    <t>患者に提示された教材</t>
+  </si>
+  <si>
+    <t>ワクチンを接種するときに患者（あるいは保護者）に提示された教材。</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+imm-1:One of documentType or reference SHALL be present {documentType.exists() or reference.exists()}</t>
+  </si>
+  <si>
+    <t>Immunization.education.id</t>
+  </si>
+  <si>
+    <t>Immunization.education.extension</t>
+  </si>
+  <si>
+    <t>Immunization.education.modifierExtension</t>
+  </si>
+  <si>
+    <t>Immunization.education.documentType</t>
+  </si>
+  <si>
+    <t>Educational material document identifier</t>
+  </si>
+  <si>
+    <t>Identifier of the material presented to the patient.</t>
+  </si>
+  <si>
+    <t>OBX-5 : OBX-3 = 69764-9</t>
+  </si>
+  <si>
+    <t>Immunization.education.reference</t>
+  </si>
+  <si>
+    <t>Educational material reference pointer</t>
+  </si>
+  <si>
+    <t>Reference pointer to the educational material given to the patient if the information was on line.</t>
+  </si>
+  <si>
+    <t>Immunization.education.publicationDate</t>
+  </si>
+  <si>
+    <t>Educational material publication date</t>
+  </si>
+  <si>
+    <t>Date the educational material was published.</t>
+  </si>
+  <si>
+    <t>OBX-5 : OBX-3 = 29768-9</t>
+  </si>
+  <si>
+    <t>Immunization.education.presentationDate</t>
+  </si>
+  <si>
+    <t>Educational material presentation date</t>
+  </si>
+  <si>
+    <t>Date the educational material was given to the patient.</t>
+  </si>
+  <si>
+    <t>OBX-5 : OBX-3 = 29769-7</t>
+  </si>
+  <si>
+    <t>Immunization.programEligibility</t>
+  </si>
+  <si>
+    <t>ワクチン接種計画での患者適格性</t>
+  </si>
+  <si>
+    <t>ワクチン接種計画での患者適格性を示す</t>
+  </si>
+  <si>
+    <t>The patient's eligibility for a vaccation program.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-program-eligibility</t>
+  </si>
+  <si>
+    <t>OBX-5 : OBX-3 = 64994-7</t>
+  </si>
+  <si>
+    <t>Immunization.fundingSource</t>
+  </si>
+  <si>
+    <t>ワクチン接種計画のの資金源</t>
+  </si>
+  <si>
+    <t>ワクチンが実際に接種されるときの資金源を示す。これは患者適格性（たとえば，公的に購入されたワクチンには適格性があるが，在庫の問題で私的資金で購入されたワクチンを投与するような場合）とは異なることがある。</t>
+  </si>
+  <si>
+    <t>The source of funding used to purchase the vaccine administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-funding-source</t>
+  </si>
+  <si>
+    <t>Immunization.reaction</t>
+  </si>
+  <si>
+    <t>予防接種後に起こった反応についての詳細な記録</t>
+  </si>
+  <si>
+    <t>予防接種に関連する時期に発生した副反応を示す分類されたデータ。</t>
+  </si>
+  <si>
+    <t>A reaction may be an indication of an allergy or intolerance and, if this is determined to be the case, it should be recorded as a new AllergyIntolerance resource instance as most systems will not query against past Immunization.reaction elements.</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>Observation[classCode=obs].code</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.id</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.extension</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.modifierExtension</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.date</t>
+  </si>
+  <si>
+    <t>When reaction started</t>
+  </si>
+  <si>
+    <t>Date of reaction to the immunization.</t>
+  </si>
+  <si>
+    <t>OBX-14 (ideally this would be reported in an IAM segment, but IAM is not part of the HL7 v2 VXU message - most likely would appear in OBX segments if at all)</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Observation)
+</t>
+  </si>
+  <si>
+    <t>Additional information on reaction</t>
+  </si>
+  <si>
+    <t>Details of the reaction.</t>
+  </si>
+  <si>
+    <t>OBX-5</t>
+  </si>
+  <si>
+    <t>.value</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.reported</t>
+  </si>
+  <si>
+    <t>Indicates self-reported reaction</t>
+  </si>
+  <si>
+    <t>Self-reported indicator.</t>
+  </si>
+  <si>
+    <t>(HL7 v2 doesn't seem to provide for this)</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=INF].role[classCode=PAT] (this syntax for self-reported=true)</t>
+  </si>
+  <si>
+    <t>Immunization.protocolApplied</t>
+  </si>
+  <si>
+    <t>提供者が実施したプロトコール</t>
+  </si>
+  <si>
+    <t>ワクチンを接種した提供者が実施したプロトコール（推奨される手順の集合）。</t>
+  </si>
+  <si>
+    <t>Immunization.protocolApplied.id</t>
+  </si>
+  <si>
+    <t>Immunization.protocolApplied.extension</t>
+  </si>
+  <si>
+    <t>Immunization.protocolApplied.modifierExtension</t>
+  </si>
+  <si>
+    <t>Immunization.protocolApplied.series</t>
+  </si>
+  <si>
+    <t>Name of vaccine series</t>
+  </si>
+  <si>
+    <t>One possible path to achieve presumed immunity against a disease - within the context of an authority.</t>
+  </si>
+  <si>
+    <t>Immunization.protocolApplied.authority</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Organization)
 </t>
-  </si>
-  <si>
-    <t>ワクチンメーカー</t>
-  </si>
-  <si>
-    <t>ワクチメーカーの名前。</t>
-  </si>
-  <si>
-    <t>RXA-17</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=ORG]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacuturerOrganization/name</t>
-  </si>
-  <si>
-    <t>Immunization.lotNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>ワクチンのロット番号</t>
-  </si>
-  <si>
-    <t>ワクチン製剤のロット番号。</t>
-  </si>
-  <si>
-    <t>RXA-15</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=MMAT].id</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/lotNumberText</t>
-  </si>
-  <si>
-    <t>Immunization.expirationDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date
-</t>
-  </si>
-  <si>
-    <t>ワクチンの使用期限</t>
-  </si>
-  <si>
-    <t>ワクチンの消費期限を表す日。</t>
-  </si>
-  <si>
-    <t>RXA-16</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=MMAT].expirationTime</t>
-  </si>
-  <si>
-    <t>Immunization.site</t>
-  </si>
-  <si>
-    <t>ワクチンが接種された身体部位</t>
-  </si>
-  <si>
-    <t>The site at which the vaccine was administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-site</t>
-  </si>
-  <si>
-    <t>RXR-2</t>
-  </si>
-  <si>
-    <t>observation.targetSiteCode</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/approachSiteCode/code</t>
-  </si>
-  <si>
-    <t>Immunization.route</t>
-  </si>
-  <si>
-    <t>ワクチンを接種した経路</t>
-  </si>
-  <si>
-    <t>ワクチンが体内へと接種された経路。</t>
-  </si>
-  <si>
-    <t>The route by which the vaccine was administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-route</t>
-  </si>
-  <si>
-    <t>RXR-1</t>
-  </si>
-  <si>
-    <t>.routeCode</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/routeCode/code</t>
-  </si>
-  <si>
-    <t>Immunization.doseQuantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
-  </si>
-  <si>
-    <t>ワクチンの投与量</t>
-  </si>
-  <si>
-    <t>ワクチン製剤が接種された量</t>
-  </si>
-  <si>
-    <t>RXA-6 / RXA-7</t>
-  </si>
-  <si>
-    <t>.doseQuantity</t>
-  </si>
-  <si>
-    <t>Immunization.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>ワクチン接種を実施した人</t>
-  </si>
-  <si>
-    <t>誰が予防接種を実施したかを表す。</t>
-  </si>
-  <si>
-    <t>Event.performer</t>
-  </si>
-  <si>
-    <t>ORC-12 / RXA-10</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
-  </si>
-  <si>
-    <t>Immunization.performer.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Immunization.performer.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Immunization.performer.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Immunization.performer.function</t>
-  </si>
-  <si>
-    <t>What type of performance was done</t>
-  </si>
-  <si>
-    <t>Describes the type of performance (e.g. ordering provider, administering provider, etc.).</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>The role a practitioner or organization plays in the immunization event.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-function</t>
-  </si>
-  <si>
-    <t>Event.performer.function</t>
-  </si>
-  <si>
-    <t>.participation.functionCode</t>
-  </si>
-  <si>
-    <t>Immunization.performer.actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
-</t>
-  </si>
-  <si>
-    <t>Individual or organization who was performing</t>
-  </si>
-  <si>
-    <t>The practitioner or organization who performed the action.</t>
-  </si>
-  <si>
-    <t>When the individual practitioner who performed the action is known, it is best to send.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>.player</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>Immunization.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>予防接種についての補足的記録</t>
-  </si>
-  <si>
-    <t>他の属性で伝達することができない予防接種に関する他の記録。</t>
-  </si>
-  <si>
-    <t>Event.note</t>
-  </si>
-  <si>
-    <t>OBX-5 : OBX-3 = 48767-8</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>Immunization.reasonCode</t>
-  </si>
-  <si>
-    <t>予防接種を接種した理由</t>
-  </si>
-  <si>
-    <t>予防接種が行われた理由</t>
-  </si>
-  <si>
-    <t>The reason why a vaccine was administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-reason</t>
-  </si>
-  <si>
-    <t>Event.reasonCode</t>
-  </si>
-  <si>
-    <t>[actionNegationInd=false].reasonCode</t>
-  </si>
-  <si>
-    <t>Immunization.reasonReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
-</t>
-  </si>
-  <si>
-    <t>予防接種を実施した理由</t>
-  </si>
-  <si>
-    <t>予防接種が実施された理由を表すCondition，ObservationあるいはDiagnosticReportリソースを参照する。</t>
-  </si>
-  <si>
-    <t>Event.reasonReference</t>
-  </si>
-  <si>
-    <t>Immunization.isSubpotent</t>
-  </si>
-  <si>
-    <t>効力量</t>
-  </si>
-  <si>
-    <t>量が通常の効力より弱いと考えられているかどうかを示す。デフォルトでは示されている量と同等の効力をもつと考えられている。</t>
-  </si>
-  <si>
-    <t>Typically, the recognition of the dose being sub-potent is retrospective, after the administration (ex. notification of a manufacturer recall after administration). However, in the case of a partial administration (the patient moves unexpectedly and only some of the dose is actually administered), subpotency may be recognized immediately, but it is still important to record the event.</t>
-  </si>
-  <si>
-    <t>By default, a dose should be considered to be potent.</t>
-  </si>
-  <si>
-    <t>RXA-20 = PA (partial administration)</t>
-  </si>
-  <si>
-    <t>Immunization.subpotentReason</t>
-  </si>
-  <si>
-    <t>効力が減弱する理由</t>
-  </si>
-  <si>
-    <t>効力が減弱すると考えられている理由。</t>
-  </si>
-  <si>
-    <t>The reason why a dose is considered to be subpotent.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-subpotent-reason</t>
-  </si>
-  <si>
-    <t>Immunization.education</t>
-  </si>
-  <si>
-    <t>患者に提示された教材</t>
-  </si>
-  <si>
-    <t>ワクチンを接種するときに患者（あるいは保護者）に提示された教材。</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-imm-1:One of documentType or reference SHALL be present {documentType.exists() or reference.exists()}</t>
-  </si>
-  <si>
-    <t>Immunization.education.id</t>
-  </si>
-  <si>
-    <t>Immunization.education.extension</t>
-  </si>
-  <si>
-    <t>Immunization.education.modifierExtension</t>
-  </si>
-  <si>
-    <t>Immunization.education.documentType</t>
-  </si>
-  <si>
-    <t>Educational material document identifier</t>
-  </si>
-  <si>
-    <t>Identifier of the material presented to the patient.</t>
-  </si>
-  <si>
-    <t>OBX-5 : OBX-3 = 69764-9</t>
-  </si>
-  <si>
-    <t>Immunization.education.reference</t>
-  </si>
-  <si>
-    <t>Educational material reference pointer</t>
-  </si>
-  <si>
-    <t>Reference pointer to the educational material given to the patient if the information was on line.</t>
-  </si>
-  <si>
-    <t>Immunization.education.publicationDate</t>
-  </si>
-  <si>
-    <t>Educational material publication date</t>
-  </si>
-  <si>
-    <t>Date the educational material was published.</t>
-  </si>
-  <si>
-    <t>OBX-5 : OBX-3 = 29768-9</t>
-  </si>
-  <si>
-    <t>Immunization.education.presentationDate</t>
-  </si>
-  <si>
-    <t>Educational material presentation date</t>
-  </si>
-  <si>
-    <t>Date the educational material was given to the patient.</t>
-  </si>
-  <si>
-    <t>OBX-5 : OBX-3 = 29769-7</t>
-  </si>
-  <si>
-    <t>Immunization.programEligibility</t>
-  </si>
-  <si>
-    <t>ワクチン接種計画での患者適格性</t>
-  </si>
-  <si>
-    <t>ワクチン接種計画での患者適格性を示す</t>
-  </si>
-  <si>
-    <t>The patient's eligibility for a vaccation program.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-program-eligibility</t>
-  </si>
-  <si>
-    <t>OBX-5 : OBX-3 = 64994-7</t>
-  </si>
-  <si>
-    <t>Immunization.fundingSource</t>
-  </si>
-  <si>
-    <t>ワクチン接種計画のの資金源</t>
-  </si>
-  <si>
-    <t>ワクチンが実際に接種されるときの資金源を示す。これは患者適格性（たとえば，公的に購入されたワクチンには適格性があるが，在庫の問題で私的資金で購入されたワクチンを投与するような場合）とは異なることがある。</t>
-  </si>
-  <si>
-    <t>The source of funding used to purchase the vaccine administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-funding-source</t>
-  </si>
-  <si>
-    <t>Immunization.reaction</t>
-  </si>
-  <si>
-    <t>予防接種後に起こった反応についての詳細な記録</t>
-  </si>
-  <si>
-    <t>予防接種に関連する時期に発生した副反応を示す分類されたデータ。</t>
-  </si>
-  <si>
-    <t>A reaction may be an indication of an allergy or intolerance and, if this is determined to be the case, it should be recorded as a new AllergyIntolerance resource instance as most systems will not query against past Immunization.reaction elements.</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>Observation[classCode=obs].code</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.id</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.extension</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.modifierExtension</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.date</t>
-  </si>
-  <si>
-    <t>When reaction started</t>
-  </si>
-  <si>
-    <t>Date of reaction to the immunization.</t>
-  </si>
-  <si>
-    <t>OBX-14 (ideally this would be reported in an IAM segment, but IAM is not part of the HL7 v2 VXU message - most likely would appear in OBX segments if at all)</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Observation)
-</t>
-  </si>
-  <si>
-    <t>Additional information on reaction</t>
-  </si>
-  <si>
-    <t>Details of the reaction.</t>
-  </si>
-  <si>
-    <t>OBX-5</t>
-  </si>
-  <si>
-    <t>.value</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.reported</t>
-  </si>
-  <si>
-    <t>Indicates self-reported reaction</t>
-  </si>
-  <si>
-    <t>Self-reported indicator.</t>
-  </si>
-  <si>
-    <t>(HL7 v2 doesn't seem to provide for this)</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=INF].role[classCode=PAT] (this syntax for self-reported=true)</t>
-  </si>
-  <si>
-    <t>Immunization.protocolApplied</t>
-  </si>
-  <si>
-    <t>提供者が実施したプロトコール</t>
-  </si>
-  <si>
-    <t>ワクチンを接種した提供者が実施したプロトコール（推奨される手順の集合）。</t>
-  </si>
-  <si>
-    <t>Immunization.protocolApplied.id</t>
-  </si>
-  <si>
-    <t>Immunization.protocolApplied.extension</t>
-  </si>
-  <si>
-    <t>Immunization.protocolApplied.modifierExtension</t>
-  </si>
-  <si>
-    <t>Immunization.protocolApplied.series</t>
-  </si>
-  <si>
-    <t>Name of vaccine series</t>
-  </si>
-  <si>
-    <t>One possible path to achieve presumed immunity against a disease - within the context of an authority.</t>
-  </si>
-  <si>
-    <t>Immunization.protocolApplied.authority</t>
   </si>
   <si>
     <t>Who is responsible for publishing the recommendations</t>
@@ -5055,7 +5066,9 @@
       <c r="L30" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M30" s="2"/>
+      <c r="M30" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5113,19 +5126,19 @@
         <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>99</v>
+        <v>292</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -5136,7 +5149,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5159,13 +5172,13 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5216,7 +5229,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5231,13 +5244,13 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5248,7 +5261,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5274,10 +5287,10 @@
         <v>260</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5328,7 +5341,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5349,7 +5362,7 @@
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5360,7 +5373,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5386,10 +5399,10 @@
         <v>132</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>156</v>
@@ -5442,7 +5455,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5463,7 +5476,7 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5474,11 +5487,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5500,10 +5513,10 @@
         <v>132</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>156</v>
@@ -5558,7 +5571,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5590,7 +5603,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5616,10 +5629,10 @@
         <v>178</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5646,13 +5659,13 @@
         <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>77</v>
@@ -5670,7 +5683,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5685,13 +5698,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5702,7 +5715,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5725,16 +5738,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5784,7 +5797,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>87</v>
@@ -5799,16 +5812,16 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5816,7 +5829,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5839,13 +5852,13 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5896,7 +5909,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -5911,13 +5924,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5928,7 +5941,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5954,10 +5967,10 @@
         <v>178</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5987,10 +6000,10 @@
         <v>182</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
@@ -6008,7 +6021,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6023,13 +6036,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6040,7 +6053,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6063,13 +6076,13 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6120,7 +6133,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6135,7 +6148,7 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
@@ -6152,7 +6165,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6178,20 +6191,20 @@
         <v>230</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q40" t="s" s="2">
         <v>77</v>
@@ -6236,7 +6249,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6254,7 +6267,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>130</v>
@@ -6268,7 +6281,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6294,10 +6307,10 @@
         <v>178</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6327,10 +6340,10 @@
         <v>182</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>77</v>
@@ -6348,7 +6361,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6380,7 +6393,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6403,13 +6416,13 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6460,7 +6473,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6472,7 +6485,7 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
@@ -6492,7 +6505,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6518,10 +6531,10 @@
         <v>260</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6572,7 +6585,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6593,7 +6606,7 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6604,7 +6617,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6630,10 +6643,10 @@
         <v>132</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>156</v>
@@ -6686,7 +6699,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6707,7 +6720,7 @@
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6718,11 +6731,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6744,10 +6757,10 @@
         <v>132</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>156</v>
@@ -6802,7 +6815,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6834,7 +6847,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6860,10 +6873,10 @@
         <v>260</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6914,7 +6927,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -6932,7 +6945,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>130</v>
@@ -6946,7 +6959,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6972,10 +6985,10 @@
         <v>101</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7026,7 +7039,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7058,7 +7071,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7084,10 +7097,10 @@
         <v>224</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7138,7 +7151,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7156,7 +7169,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>130</v>
@@ -7170,7 +7183,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7196,10 +7209,10 @@
         <v>224</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7250,7 +7263,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7268,7 +7281,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>130</v>
@@ -7282,7 +7295,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7308,10 +7321,10 @@
         <v>178</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7341,10 +7354,10 @@
         <v>182</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7362,7 +7375,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7380,7 +7393,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>130</v>
@@ -7394,7 +7407,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7420,10 +7433,10 @@
         <v>178</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7453,10 +7466,10 @@
         <v>182</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7474,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7506,7 +7519,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7529,16 +7542,16 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7588,7 +7601,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7606,10 +7619,10 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7620,7 +7633,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7646,10 +7659,10 @@
         <v>260</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7700,7 +7713,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -7721,7 +7734,7 @@
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7732,7 +7745,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7758,10 +7771,10 @@
         <v>132</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>156</v>
@@ -7814,7 +7827,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -7835,7 +7848,7 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7846,11 +7859,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7872,10 +7885,10 @@
         <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>156</v>
@@ -7930,7 +7943,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -7962,7 +7975,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7988,10 +8001,10 @@
         <v>224</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8042,7 +8055,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8060,7 +8073,7 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>220</v>
@@ -8074,7 +8087,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8097,13 +8110,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8154,7 +8167,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8172,10 +8185,10 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8186,7 +8199,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8212,10 +8225,10 @@
         <v>230</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8266,7 +8279,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8284,10 +8297,10 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8298,7 +8311,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8321,13 +8334,13 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8378,7 +8391,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8410,7 +8423,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8436,10 +8449,10 @@
         <v>260</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8490,7 +8503,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8511,7 +8524,7 @@
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8522,7 +8535,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8548,10 +8561,10 @@
         <v>132</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>156</v>
@@ -8604,7 +8617,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8625,7 +8638,7 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8636,11 +8649,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8662,10 +8675,10 @@
         <v>132</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>156</v>
@@ -8720,7 +8733,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -8752,7 +8765,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8778,10 +8791,10 @@
         <v>260</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8832,7 +8845,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -8864,7 +8877,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8887,13 +8900,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>253</v>
+        <v>429</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8944,7 +8957,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -8976,7 +8989,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9002,10 +9015,10 @@
         <v>178</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9035,28 +9048,28 @@
         <v>182</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE65" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9088,7 +9101,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9111,16 +9124,16 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9170,7 +9183,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>87</v>
@@ -9202,7 +9215,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9225,16 +9238,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9284,7 +9297,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-31</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>このProfileはImmunizationリソースに対して日本での予防接種データを送受信するための制約を加えたものである。</t>
+    <t>このプロファイルはImmunizationリソースに対して日本での予防接種データを送受信するための制約を加えたものである。</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -606,10 +606,10 @@
     <t>接種されたあるいは接種予定のワクチン。</t>
   </si>
   <si>
-    <t>全てのターミノロジーがこのパターンに当てはまるわけではない。モデルによってはCodeableConceptではなく，独自構造でCodingを直接指定して文書やコーディング，その解釈や事前条件や事後条件との関連について示される。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_Immunization_VS</t>
+    <t>全てのターミノロジがこのパターンに当てはまるわけではない。モデルによってはCodeableConceptではなく，独自構造でCodingを直接指定して文書やコーディング，その解釈や事前条件や事後条件との関連について示される。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCode_Immunization_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -715,7 +715,7 @@
 </t>
   </si>
   <si>
-    <t>予防接種を受けた対象者の記録として最初に記載された日。</t>
+    <t>予防接種を受けた対象者の記録として最初に記載された日</t>
   </si>
   <si>
     <t>The date the occurrence of the immunization was first captured in the record - potentially significantly after the occurrence of the event.</t>
@@ -1729,7 +1729,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="66.7265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.72265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="65.4765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization.xlsx
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -259,10 +262,6 @@
   </si>
   <si>
     <t>ワクチンを接種したときの記録，あるいは予防接種について患者や医療従事者などが報告した記録。</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1638,55 +1637,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1749,221 +1748,221 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>83</v>
@@ -1975,10 +1974,10 @@
         <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -1987,20 +1986,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>88</v>
@@ -2019,80 +2018,80 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -2101,20 +2100,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>88</v>
@@ -2131,80 +2130,80 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -2213,17 +2212,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>88</v>
@@ -2245,80 +2244,80 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -2327,23 +2326,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>107</v>
@@ -2359,26 +2358,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>111</v>
@@ -2390,49 +2389,49 @@
         <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>114</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -2445,19 +2444,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>117</v>
@@ -2473,80 +2472,80 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>121</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -2559,19 +2558,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>125</v>
@@ -2587,80 +2586,80 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -2669,23 +2668,23 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>132</v>
@@ -2699,45 +2698,45 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>136</v>
@@ -2746,31 +2745,31 @@
         <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -2781,23 +2780,23 @@
         <v>139</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>140</v>
@@ -2811,59 +2810,59 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>143</v>
@@ -2872,19 +2871,19 @@
         <v>138</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -2895,23 +2894,23 @@
         <v>144</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>145</v>
@@ -2925,59 +2924,59 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>143</v>
@@ -2986,19 +2985,19 @@
         <v>138</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
@@ -3009,23 +3008,23 @@
         <v>148</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>149</v>
@@ -3039,59 +3038,59 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>143</v>
@@ -3100,19 +3099,19 @@
         <v>138</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
@@ -3125,19 +3124,19 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>88</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>132</v>
@@ -3155,80 +3154,80 @@
         <v>157</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -3237,23 +3236,23 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>160</v>
@@ -3267,62 +3266,62 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>159</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>99</v>
@@ -3331,7 +3330,7 @@
         <v>163</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>164</v>
@@ -3349,7 +3348,7 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3359,7 +3358,7 @@
         <v>87</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>88</v>
@@ -3381,26 +3380,26 @@
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
         <v>171</v>
@@ -3412,19 +3411,19 @@
         <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>167</v>
@@ -3436,7 +3435,7 @@
         <v>87</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>99</v>
@@ -3445,7 +3444,7 @@
         <v>174</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>175</v>
@@ -3454,7 +3453,7 @@
         <v>176</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -3463,23 +3462,23 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>178</v>
@@ -3495,26 +3494,26 @@
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
         <v>182</v>
@@ -3526,31 +3525,31 @@
         <v>184</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>99</v>
@@ -3559,16 +3558,16 @@
         <v>185</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -3577,7 +3576,7 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3587,10 +3586,10 @@
         <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>88</v>
@@ -3609,26 +3608,26 @@
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
         <v>111</v>
@@ -3638,19 +3637,19 @@
         <v>191</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>187</v>
@@ -3662,7 +3661,7 @@
         <v>87</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>99</v>
@@ -3689,7 +3688,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3699,10 +3698,10 @@
         <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>88</v>
@@ -3719,50 +3718,50 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>197</v>
@@ -3774,7 +3773,7 @@
         <v>87</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>99</v>
@@ -3792,7 +3791,7 @@
         <v>204</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -3801,23 +3800,23 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>206</v>
@@ -3831,62 +3830,62 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>205</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>99</v>
@@ -3904,7 +3903,7 @@
         <v>212</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
@@ -3913,7 +3912,7 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3923,10 +3922,10 @@
         <v>87</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>88</v>
@@ -3945,50 +3944,50 @@
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>213</v>
@@ -4000,7 +3999,7 @@
         <v>87</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>99</v>
@@ -4027,23 +4026,23 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>224</v>
@@ -4057,71 +4056,71 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>223</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>227</v>
@@ -4130,7 +4129,7 @@
         <v>228</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
@@ -4139,20 +4138,20 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>88</v>
@@ -4171,68 +4170,68 @@
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>229</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>234</v>
@@ -4244,7 +4243,7 @@
         <v>236</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
@@ -4253,23 +4252,23 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>178</v>
@@ -4285,26 +4284,26 @@
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W23" t="s" s="2">
         <v>182</v>
@@ -4316,37 +4315,37 @@
         <v>242</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>237</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>234</v>
@@ -4358,7 +4357,7 @@
         <v>236</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
@@ -4367,23 +4366,23 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>245</v>
@@ -4397,62 +4396,62 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>244</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>99</v>
@@ -4470,7 +4469,7 @@
         <v>251</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
@@ -4479,23 +4478,23 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>253</v>
@@ -4509,68 +4508,68 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>252</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>256</v>
@@ -4579,7 +4578,7 @@
         <v>257</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>258</v>
@@ -4591,23 +4590,23 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>260</v>
@@ -4621,68 +4620,68 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>259</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>263</v>
@@ -4691,7 +4690,7 @@
         <v>264</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>265</v>
@@ -4703,23 +4702,23 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>267</v>
@@ -4733,68 +4732,68 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>266</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>270</v>
@@ -4803,10 +4802,10 @@
         <v>271</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
@@ -4815,23 +4814,23 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>178</v>
@@ -4845,26 +4844,26 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
         <v>182</v>
@@ -4876,37 +4875,37 @@
         <v>275</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>272</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>276</v>
@@ -4915,7 +4914,7 @@
         <v>277</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>278</v>
@@ -4927,23 +4926,23 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>178</v>
@@ -4957,26 +4956,26 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
         <v>182</v>
@@ -4988,37 +4987,37 @@
         <v>283</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>279</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>284</v>
@@ -5027,7 +5026,7 @@
         <v>285</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>286</v>
@@ -5039,23 +5038,23 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>288</v>
@@ -5071,56 +5070,56 @@
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>287</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>87</v>
@@ -5132,7 +5131,7 @@
         <v>292</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>293</v>
@@ -5141,10 +5140,10 @@
         <v>294</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
@@ -5153,20 +5152,20 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>88</v>
@@ -5183,62 +5182,62 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>295</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>99</v>
@@ -5253,10 +5252,10 @@
         <v>301</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
@@ -5265,23 +5264,23 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>260</v>
@@ -5295,80 +5294,80 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>305</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>306</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
@@ -5381,19 +5380,19 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>132</v>
@@ -5409,80 +5408,80 @@
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>310</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>306</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
@@ -5495,13 +5494,13 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>88</v>
@@ -5525,80 +5524,80 @@
         <v>157</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>315</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
@@ -5607,20 +5606,20 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>88</v>
@@ -5637,26 +5636,26 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W35" t="s" s="2">
         <v>319</v>
@@ -5668,31 +5667,31 @@
         <v>321</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>316</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>99</v>
@@ -5701,16 +5700,16 @@
         <v>322</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>323</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
@@ -5719,7 +5718,7 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5729,10 +5728,10 @@
         <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>88</v>
@@ -5751,50 +5750,50 @@
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>324</v>
@@ -5806,7 +5805,7 @@
         <v>87</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>99</v>
@@ -5815,7 +5814,7 @@
         <v>329</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>330</v>
@@ -5824,7 +5823,7 @@
         <v>331</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
@@ -5833,20 +5832,20 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>88</v>
@@ -5863,62 +5862,62 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
         <v>332</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>99</v>
@@ -5933,10 +5932,10 @@
         <v>338</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38">
@@ -5945,23 +5944,23 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>178</v>
@@ -5975,26 +5974,26 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W38" t="s" s="2">
         <v>182</v>
@@ -6006,31 +6005,31 @@
         <v>343</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
         <v>339</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>99</v>
@@ -6039,16 +6038,16 @@
         <v>344</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>345</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39">
@@ -6057,23 +6056,23 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>347</v>
@@ -6087,62 +6086,62 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>346</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>99</v>
@@ -6151,16 +6150,16 @@
         <v>350</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40">
@@ -6169,17 +6168,17 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>88</v>
@@ -6201,70 +6200,70 @@
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>355</v>
       </c>
       <c r="Q40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
         <v>351</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>356</v>
@@ -6273,10 +6272,10 @@
         <v>130</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
@@ -6285,23 +6284,23 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>178</v>
@@ -6315,26 +6314,26 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W41" t="s" s="2">
         <v>182</v>
@@ -6346,49 +6345,49 @@
         <v>361</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>357</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42">
@@ -6397,23 +6396,23 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>296</v>
@@ -6427,80 +6426,80 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>362</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>365</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
@@ -6509,23 +6508,23 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>260</v>
@@ -6539,80 +6538,80 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
         <v>305</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>306</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44">
@@ -6625,19 +6624,19 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>132</v>
@@ -6653,80 +6652,80 @@
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>310</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>306</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45">
@@ -6739,13 +6738,13 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>88</v>
@@ -6769,80 +6768,80 @@
         <v>157</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>315</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46">
@@ -6851,23 +6850,23 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>260</v>
@@ -6881,68 +6880,68 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
         <v>369</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>372</v>
@@ -6951,10 +6950,10 @@
         <v>130</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
@@ -6963,23 +6962,23 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>101</v>
@@ -6993,80 +6992,80 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>373</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
@@ -7075,23 +7074,23 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>224</v>
@@ -7105,68 +7104,68 @@
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>376</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>379</v>
@@ -7175,10 +7174,10 @@
         <v>130</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
@@ -7187,23 +7186,23 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>224</v>
@@ -7217,68 +7216,68 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
         <v>380</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>383</v>
@@ -7287,10 +7286,10 @@
         <v>130</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
@@ -7299,23 +7298,23 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>178</v>
@@ -7329,26 +7328,26 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W50" t="s" s="2">
         <v>182</v>
@@ -7360,37 +7359,37 @@
         <v>388</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
         <v>384</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>389</v>
@@ -7399,10 +7398,10 @@
         <v>130</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51">
@@ -7411,23 +7410,23 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>178</v>
@@ -7441,26 +7440,26 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W51" t="s" s="2">
         <v>182</v>
@@ -7472,49 +7471,49 @@
         <v>394</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>390</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52">
@@ -7523,23 +7522,23 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>296</v>
@@ -7555,68 +7554,68 @@
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
         <v>395</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>399</v>
@@ -7625,10 +7624,10 @@
         <v>400</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53">
@@ -7637,23 +7636,23 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>260</v>
@@ -7667,80 +7666,80 @@
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>305</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>306</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54">
@@ -7753,19 +7752,19 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>132</v>
@@ -7781,80 +7780,80 @@
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>310</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>306</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55">
@@ -7867,13 +7866,13 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>88</v>
@@ -7897,80 +7896,80 @@
         <v>157</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
         <v>315</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56">
@@ -7979,23 +7978,23 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>224</v>
@@ -8009,68 +8008,68 @@
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>404</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>407</v>
@@ -8079,10 +8078,10 @@
         <v>220</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57">
@@ -8091,23 +8090,23 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>409</v>
@@ -8121,68 +8120,68 @@
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
         <v>408</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>412</v>
@@ -8191,10 +8190,10 @@
         <v>413</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58">
@@ -8203,23 +8202,23 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>230</v>
@@ -8233,68 +8232,68 @@
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
         <v>414</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>417</v>
@@ -8303,10 +8302,10 @@
         <v>418</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
@@ -8315,23 +8314,23 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>296</v>
@@ -8345,80 +8344,80 @@
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
         <v>419</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
@@ -8427,23 +8426,23 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>260</v>
@@ -8457,80 +8456,80 @@
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>305</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>306</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61">
@@ -8543,19 +8542,19 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>132</v>
@@ -8571,80 +8570,80 @@
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
         <v>310</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>306</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62">
@@ -8657,13 +8656,13 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>88</v>
@@ -8687,80 +8686,80 @@
         <v>157</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
         <v>315</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63">
@@ -8769,23 +8768,23 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>260</v>
@@ -8799,80 +8798,80 @@
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
         <v>425</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64">
@@ -8881,23 +8880,23 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>429</v>
@@ -8911,80 +8910,80 @@
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>428</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65">
@@ -8993,23 +8992,23 @@
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>178</v>
@@ -9023,26 +9022,26 @@
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W65" t="s" s="2">
         <v>182</v>
@@ -9054,49 +9053,49 @@
         <v>436</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
         <v>432</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66">
@@ -9105,7 +9104,7 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9115,13 +9114,13 @@
         <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>438</v>
@@ -9137,50 +9136,50 @@
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
         <v>437</v>
@@ -9192,25 +9191,25 @@
         <v>87</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67">
@@ -9219,23 +9218,23 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>438</v>
@@ -9251,80 +9250,80 @@
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
         <v>442</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
